--- a/Сценарии/WebTours Профиль нагрузки_v1.2 (Новая статистика) - 1.xlsx
+++ b/Сценарии/WebTours Профиль нагрузки_v1.2 (Новая статистика) - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учеба\Задание\Задание 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85CB29-DDF9-4833-A9E5-15A2FEB031C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A84F54-C5F2-4E28-9A5E-64062E990878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="42" r:id="rId5"/>
+    <pivotCache cacheId="126" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1084,7 +1084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1249,17 +1249,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1492,7 +1481,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1555,8 +1544,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,41 +1556,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1611,14 +1598,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1686,7 +1673,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Evgeniy Nazarenko" refreshedDate="44816.876359722221" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Evgeniy Nazarenko" refreshedDate="44817.833537500002" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H31" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1717,16 +1704,16 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="26" maxValue="47"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="45" maxValue="75"/>
     </cacheField>
     <cacheField name="одним пользователем в минуту" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2765957446808511" maxValue="2.3076923076923075"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.8" maxValue="1.3333333333333333"/>
     </cacheField>
     <cacheField name="Длительность ступени" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
     <cacheField name="Итого" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="37.5" maxValue="109.09090909090908"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16" maxValue="48.000000000000007"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1744,306 +1731,306 @@
     <x v="0"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="47"/>
-    <n v="1.2765957446808511"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="76.59574468085107"/>
+    <n v="48.000000000000007"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="47"/>
-    <n v="1.2765957446808511"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="76.59574468085107"/>
+    <n v="48.000000000000007"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="2"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="47"/>
-    <n v="1.2765957446808511"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="76.59574468085107"/>
+    <n v="48.000000000000007"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="3"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="47"/>
-    <n v="1.2765957446808511"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="76.59574468085107"/>
+    <n v="48.000000000000007"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="4"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="47"/>
-    <n v="1.2765957446808511"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="76.59574468085107"/>
+    <n v="48.000000000000007"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="5"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="47"/>
-    <n v="1.2765957446808511"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="76.59574468085107"/>
+    <n v="48.000000000000007"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="6"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="47"/>
-    <n v="1.2765957446808511"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="76.59574468085107"/>
+    <n v="48.000000000000007"/>
   </r>
   <r>
     <s v="Удаление бронирования "/>
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="45"/>
+    <n v="1.3333333333333333"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="26.666666666666664"/>
   </r>
   <r>
     <s v="Удаление бронирования "/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="45"/>
+    <n v="1.3333333333333333"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="26.666666666666664"/>
   </r>
   <r>
     <s v="Удаление бронирования "/>
     <x v="6"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="45"/>
+    <n v="1.3333333333333333"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="26.666666666666664"/>
   </r>
   <r>
     <s v="Удаление бронирования "/>
     <x v="7"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="45"/>
+    <n v="1.3333333333333333"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="26.666666666666664"/>
   </r>
   <r>
     <s v="Удаление бронирования "/>
     <x v="8"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="45"/>
+    <n v="1.3333333333333333"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="26.666666666666664"/>
   </r>
   <r>
     <s v="Регистрация новых пользователей"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="30"/>
     <n v="2"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="40"/>
+    <n v="32"/>
   </r>
   <r>
     <s v="Регистрация новых пользователей"/>
     <x v="9"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="30"/>
     <n v="2"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="40"/>
+    <n v="32"/>
   </r>
   <r>
     <s v="Регистрация новых пользователей"/>
     <x v="10"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="30"/>
     <n v="2"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="40"/>
+    <n v="32"/>
   </r>
   <r>
     <s v="Регистрация новых пользователей"/>
     <x v="11"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="30"/>
     <n v="2"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="40"/>
+    <n v="32"/>
   </r>
   <r>
     <s v="Регистрация новых пользователей"/>
     <x v="8"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="30"/>
     <n v="2"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="40"/>
+    <n v="32"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="26"/>
-    <n v="2.3076923076923075"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="46.153846153846146"/>
+    <n v="16"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="26"/>
-    <n v="2.3076923076923075"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="46.153846153846146"/>
+    <n v="16"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="3"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="26"/>
-    <n v="2.3076923076923075"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="46.153846153846146"/>
+    <n v="16"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="8"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="26"/>
-    <n v="2.3076923076923075"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="46.153846153846146"/>
+    <n v="16"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="3"/>
-    <n v="33"/>
-    <n v="1.8181818181818181"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="109.09090909090908"/>
+    <n v="16"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="3"/>
-    <n v="33"/>
-    <n v="1.8181818181818181"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="109.09090909090908"/>
+    <n v="16"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="3"/>
-    <n v="33"/>
-    <n v="1.8181818181818181"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="109.09090909090908"/>
+    <n v="16"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="4"/>
     <n v="1"/>
-    <n v="3"/>
-    <n v="33"/>
-    <n v="1.8181818181818181"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="109.09090909090908"/>
+    <n v="16"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="8"/>
     <n v="1"/>
-    <n v="3"/>
-    <n v="33"/>
-    <n v="1.8181818181818181"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="109.09090909090908"/>
+    <n v="16"/>
   </r>
   <r>
     <s v="Ознакомление с путевым листом"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="27"/>
-    <n v="2.2222222222222223"/>
+    <n v="2"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="44.444444444444443"/>
+    <n v="32"/>
   </r>
   <r>
     <s v="Ознакомление с путевым листом"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="27"/>
-    <n v="2.2222222222222223"/>
+    <n v="2"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="44.444444444444443"/>
+    <n v="32"/>
   </r>
   <r>
     <s v="Ознакомление с путевым листом"/>
     <x v="6"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="27"/>
-    <n v="2.2222222222222223"/>
+    <n v="2"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="44.444444444444443"/>
+    <n v="32"/>
   </r>
   <r>
     <s v="Ознакомление с путевым листом"/>
     <x v="8"/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="27"/>
-    <n v="2.2222222222222223"/>
+    <n v="2"/>
+    <n v="75"/>
+    <n v="0.8"/>
     <n v="20"/>
-    <n v="44.444444444444443"/>
+    <n v="32"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="126" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2398,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,8 +2398,8 @@
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.85546875" bestFit="1" customWidth="1"/>
@@ -2478,7 +2465,7 @@
       <c r="U1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="36" t="s">
         <v>48</v>
       </c>
       <c r="X1" t="s">
@@ -2492,33 +2479,33 @@
       <c r="B2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="64">
-        <v>1</v>
-      </c>
-      <c r="D2" s="65">
+      <c r="C2" s="62">
+        <v>1</v>
+      </c>
+      <c r="D2" s="63">
         <f t="shared" ref="D2:D12" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E2">
         <f>VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F2" s="21">
         <f>60/E2*C2</f>
-        <v>1.2765957446808511</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
         <v>20</v>
       </c>
       <c r="H2" s="20">
         <f>D2*F2*G2</f>
-        <v>76.59574468085107</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="15">
-        <v>313.78494437005077</v>
+        <v>138.66666666666669</v>
       </c>
       <c r="K2" s="15"/>
       <c r="M2" t="s">
@@ -2535,29 +2522,29 @@
         <v>37.76</v>
       </c>
       <c r="Q2" s="18">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="R2" s="18">
         <v>3</v>
       </c>
       <c r="S2" s="19">
         <f>60/(Q2)</f>
-        <v>1.2765957446808511</v>
+        <v>0.8</v>
       </c>
       <c r="T2" s="22">
         <v>20</v>
       </c>
       <c r="U2" s="23">
         <f>ROUND(R2*S2*T2,0)</f>
-        <v>77</v>
-      </c>
-      <c r="V2" s="39">
+        <v>48</v>
+      </c>
+      <c r="V2" s="37">
         <f>R2/W$2</f>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="W2">
-        <f>SUM(R2:R6)</f>
-        <v>9</v>
+        <f>SUM(R2:R7)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -2567,33 +2554,33 @@
       <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="64">
-        <v>1</v>
-      </c>
-      <c r="D3" s="66">
+      <c r="C3" s="62">
+        <v>1</v>
+      </c>
+      <c r="D3" s="64">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F3" s="21">
         <f>60/E3*C3</f>
-        <v>1.2765957446808511</v>
+        <v>0.8</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3" s="20">
         <f>D3*F3*G3</f>
-        <v>76.59574468085107</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="15">
-        <v>185.68665377176015</v>
+        <v>64</v>
       </c>
       <c r="K3" s="15"/>
       <c r="M3" t="s">
@@ -2610,25 +2597,25 @@
         <v>22.73</v>
       </c>
       <c r="Q3" s="18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="R3" s="18">
         <v>1</v>
       </c>
       <c r="S3" s="19">
         <f t="shared" ref="S3:S5" si="2">60/(Q3)</f>
-        <v>1.875</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T3" s="22">
         <v>20</v>
       </c>
       <c r="U3" s="23">
         <f t="shared" ref="U3:U5" si="3">ROUND(R3*S3*T3,0)</f>
-        <v>38</v>
-      </c>
-      <c r="V3" s="39">
+        <v>27</v>
+      </c>
+      <c r="V3" s="37">
         <f>R3/W$2</f>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -2638,33 +2625,33 @@
       <c r="B4" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="64">
-        <v>1</v>
-      </c>
-      <c r="D4" s="66">
+      <c r="C4" s="62">
+        <v>1</v>
+      </c>
+      <c r="D4" s="64">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4">
         <f>VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F4" s="21">
         <f>60/E4*C4</f>
-        <v>1.2765957446808511</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
         <v>20</v>
       </c>
       <c r="H4" s="20">
         <f>D4*F4*G4</f>
-        <v>76.59574468085107</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="15">
-        <v>277.18919968919965</v>
+        <v>122.66666666666666</v>
       </c>
       <c r="K4" s="15"/>
       <c r="M4" t="s">
@@ -2681,25 +2668,25 @@
         <v>20.990000000000002</v>
       </c>
       <c r="Q4" s="18">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="R4" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="T4" s="22">
         <v>20</v>
       </c>
       <c r="U4" s="23">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="V4" s="39">
+        <v>32</v>
+      </c>
+      <c r="V4" s="37">
         <f t="shared" ref="V4:V5" si="4">R4/W$2</f>
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -2709,33 +2696,33 @@
       <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="64">
-        <v>1</v>
-      </c>
-      <c r="D5" s="66">
+      <c r="C5" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" s="64">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E12" si="5">VLOOKUP(A5,$M$1:$W$8,5,FALSE)</f>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F5" s="21">
         <f t="shared" ref="F5:F31" si="6">60/E5*C5</f>
-        <v>1.2765957446808511</v>
+        <v>0.8</v>
       </c>
       <c r="G5">
         <v>20</v>
       </c>
       <c r="H5" s="20">
         <f t="shared" ref="H5:H31" si="7">D5*F5*G5</f>
-        <v>76.59574468085107</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="15">
-        <v>231.84049992560631</v>
+        <v>80</v>
       </c>
       <c r="K5" s="15"/>
       <c r="M5" t="s">
@@ -2752,25 +2739,25 @@
         <v>23.34</v>
       </c>
       <c r="Q5" s="18">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="R5" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" s="19">
         <f t="shared" si="2"/>
-        <v>1.8181818181818181</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="22">
         <v>20</v>
       </c>
       <c r="U5" s="23">
         <f t="shared" si="3"/>
-        <v>109</v>
-      </c>
-      <c r="V5" s="39">
+        <v>16</v>
+      </c>
+      <c r="V5" s="37">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2780,33 +2767,33 @@
       <c r="B6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="64">
-        <v>1</v>
-      </c>
-      <c r="D6" s="66">
+      <c r="C6" s="62">
+        <v>1</v>
+      </c>
+      <c r="D6" s="64">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F6" s="21">
         <f t="shared" si="6"/>
-        <v>1.2765957446808511</v>
+        <v>0.8</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6" s="20">
         <f t="shared" si="7"/>
-        <v>76.59574468085107</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="15">
-        <v>76.59574468085107</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="K6" s="15"/>
       <c r="M6" t="s">
@@ -2823,25 +2810,25 @@
         <v>17.36</v>
       </c>
       <c r="Q6" s="18">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="R6" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="19">
         <f>60/(Q6)</f>
-        <v>2.2222222222222223</v>
+        <v>0.8</v>
       </c>
       <c r="T6" s="22">
         <v>20</v>
       </c>
       <c r="U6" s="23">
         <f>ROUND(R6*S6*T6,0)</f>
-        <v>44</v>
-      </c>
-      <c r="V6" s="39">
+        <v>32</v>
+      </c>
+      <c r="V6" s="37">
         <f>R6/W$2</f>
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2851,33 +2838,33 @@
       <c r="B7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="64">
-        <v>1</v>
-      </c>
-      <c r="D7" s="66">
+      <c r="C7" s="62">
+        <v>1</v>
+      </c>
+      <c r="D7" s="64">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F7" s="21">
         <f t="shared" si="6"/>
-        <v>1.2765957446808511</v>
+        <v>0.8</v>
       </c>
       <c r="G7">
         <v>20</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" si="7"/>
-        <v>76.59574468085107</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="15">
-        <v>37.5</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="K7" s="15"/>
       <c r="M7" t="s">
@@ -2886,7 +2873,7 @@
       <c r="N7" s="24">
         <v>0.7</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="24">
         <v>15.39</v>
       </c>
       <c r="P7" s="31">
@@ -2894,23 +2881,25 @@
         <v>16.09</v>
       </c>
       <c r="Q7" s="18">
-        <v>26</v>
-      </c>
-      <c r="R7" s="33">
+        <v>75</v>
+      </c>
+      <c r="R7" s="18">
         <v>1</v>
       </c>
       <c r="S7" s="19">
         <f>60/(Q7)</f>
-        <v>2.3076923076923075</v>
-      </c>
-      <c r="T7" s="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="22">
+        <v>20</v>
+      </c>
       <c r="U7" s="23">
         <f>SUM(U2:U6)</f>
-        <v>308</v>
-      </c>
-      <c r="V7" s="39">
-        <f>SUM(V2:V6)</f>
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="V7" s="37">
+        <f>R7/W$2</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2920,35 +2909,39 @@
       <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="64">
-        <v>1</v>
-      </c>
-      <c r="D8" s="67">
+      <c r="C8" s="62">
+        <v>1</v>
+      </c>
+      <c r="D8" s="65">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E8">
         <f>VLOOKUP(A8,$M$1:$W$8,5,FALSE)</f>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" si="6"/>
-        <v>1.2765957446808511</v>
+        <v>0.8</v>
       </c>
       <c r="G8">
         <v>20</v>
       </c>
       <c r="H8" s="20">
         <f t="shared" si="7"/>
-        <v>76.59574468085107</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="15">
-        <v>158.54018912529551</v>
+        <v>106.66666666666667</v>
       </c>
       <c r="K8" s="15"/>
+      <c r="V8" s="37">
+        <f>SUM(V2:V7)</f>
+        <v>1.0000000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -2960,30 +2953,30 @@
       <c r="C9" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="53">
         <f t="shared" ref="D9" si="8">VLOOKUP(A9,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" ref="E9" si="9">VLOOKUP(A9,$M$1:$W$8,5,FALSE)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F9" s="21">
         <f t="shared" si="6"/>
-        <v>1.875</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G9">
         <v>20</v>
       </c>
       <c r="H9" s="20">
         <f t="shared" ref="H9" si="10">D9*F9*G9</f>
-        <v>37.5</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="15">
-        <v>353.78494437005071</v>
+        <v>170.66666666666669</v>
       </c>
       <c r="K9" s="15"/>
       <c r="R9">
@@ -3001,30 +2994,30 @@
       <c r="C10" s="30">
         <v>1</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="20">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F10" s="21">
         <f t="shared" si="6"/>
-        <v>1.875</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G10">
         <v>20</v>
       </c>
       <c r="H10" s="20">
         <f t="shared" si="7"/>
-        <v>37.5</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>64</v>
       </c>
       <c r="J10" s="15">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3037,30 +3030,30 @@
       <c r="C11" s="30">
         <v>1</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="20">
         <f>VLOOKUP(A11,$M$1:$W$8,5,FALSE)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F11" s="21">
         <f t="shared" si="6"/>
-        <v>1.875</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" s="20">
         <f t="shared" si="7"/>
-        <v>37.5</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="J11" s="15">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3073,30 +3066,30 @@
       <c r="C12" s="30">
         <v>1</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="20">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F12" s="21">
         <f t="shared" si="6"/>
-        <v>1.875</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G12">
         <v>20</v>
       </c>
       <c r="H12" s="20">
         <f t="shared" si="7"/>
-        <v>37.5</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="15">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3109,30 +3102,30 @@
       <c r="C13" s="30">
         <v>1</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="52">
         <f t="shared" ref="D13:D31" si="11">VLOOKUP(A13,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" ref="E13:E31" si="12">VLOOKUP(A13,$M$1:$W$8,5,FALSE)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F13" s="21">
         <f t="shared" si="6"/>
-        <v>1.875</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="7"/>
-        <v>37.5</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>79</v>
       </c>
       <c r="J13" s="15">
-        <v>76.59574468085107</v>
+        <v>48.000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3145,30 +3138,30 @@
       <c r="C14" s="30">
         <v>1</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="53">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" ref="H14" si="13">D14*F14*G14</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>112</v>
       </c>
       <c r="J14" s="15">
-        <v>1831.5179206136652</v>
+        <v>901.33333333333348</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3181,24 +3174,24 @@
       <c r="C15" s="30">
         <v>1</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="51">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="20">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F15" s="21">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
       <c r="H15" s="20">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3211,24 +3204,24 @@
       <c r="C16" s="30">
         <v>1</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="51">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="20">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F16" s="21">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="G16">
         <v>20</v>
       </c>
       <c r="H16" s="20">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3241,24 +3234,24 @@
       <c r="C17" s="30">
         <v>1</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="51">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="20">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F17" s="21">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="G17">
         <v>20</v>
       </c>
       <c r="H17" s="20">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3271,24 +3264,24 @@
       <c r="C18" s="30">
         <v>1</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="51">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F18" s="21">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
       <c r="H18" s="20">
         <f>D18*F18*G18</f>
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3298,27 +3291,27 @@
       <c r="B19" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="64">
-        <v>1</v>
-      </c>
-      <c r="D19" s="65">
+      <c r="C19" s="62">
+        <v>1</v>
+      </c>
+      <c r="D19" s="63">
         <f t="shared" ref="D19:D22" si="14">VLOOKUP(A19,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E22" si="15">VLOOKUP(A19,$M$1:$W$8,5,FALSE)</f>
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F19" s="21">
         <f t="shared" ref="F19:F22" si="16">60/E19*C19</f>
-        <v>2.3076923076923075</v>
+        <v>0.8</v>
       </c>
       <c r="G19">
         <v>20</v>
       </c>
       <c r="H19" s="20">
         <f t="shared" ref="H19:H22" si="17">D19*F19*G19</f>
-        <v>46.153846153846146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3328,27 +3321,27 @@
       <c r="B20" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="64">
-        <v>1</v>
-      </c>
-      <c r="D20" s="66">
+      <c r="C20" s="62">
+        <v>1</v>
+      </c>
+      <c r="D20" s="64">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E20">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F20" s="21">
         <f t="shared" si="16"/>
-        <v>2.3076923076923075</v>
+        <v>0.8</v>
       </c>
       <c r="G20">
         <v>20</v>
       </c>
       <c r="H20" s="20">
         <f t="shared" si="17"/>
-        <v>46.153846153846146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3358,27 +3351,27 @@
       <c r="B21" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="64">
-        <v>1</v>
-      </c>
-      <c r="D21" s="66">
+      <c r="C21" s="62">
+        <v>1</v>
+      </c>
+      <c r="D21" s="64">
         <f t="shared" ref="D21" si="18">VLOOKUP(A21,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21" si="19">VLOOKUP(A21,$M$1:$W$8,5,FALSE)</f>
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F21" s="21">
         <f t="shared" ref="F21" si="20">60/E21*C21</f>
-        <v>2.3076923076923075</v>
+        <v>0.8</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" ref="H21" si="21">D21*F21*G21</f>
-        <v>46.153846153846146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3388,27 +3381,27 @@
       <c r="B22" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="64">
-        <v>1</v>
-      </c>
-      <c r="D22" s="67">
+      <c r="C22" s="62">
+        <v>1</v>
+      </c>
+      <c r="D22" s="65">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E22">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F22" s="21">
         <f t="shared" si="16"/>
-        <v>2.3076923076923075</v>
+        <v>0.8</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
       <c r="H22" s="20">
         <f t="shared" si="17"/>
-        <v>46.153846153846146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3421,24 +3414,24 @@
       <c r="C23" s="30">
         <v>1</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="51">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F23" s="21">
         <f t="shared" si="6"/>
-        <v>1.8181818181818181</v>
+        <v>0.8</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23" s="20">
         <f>D23*F23*G23</f>
-        <v>109.09090909090908</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3451,24 +3444,24 @@
       <c r="C24" s="30">
         <v>1</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="51">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F24" s="21">
         <f t="shared" si="6"/>
-        <v>1.8181818181818181</v>
+        <v>0.8</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" s="20">
         <f t="shared" si="7"/>
-        <v>109.09090909090908</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3481,24 +3474,24 @@
       <c r="C25" s="30">
         <v>1</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="51">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F25" s="21">
         <f t="shared" si="6"/>
-        <v>1.8181818181818181</v>
+        <v>0.8</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
       <c r="H25" s="20">
         <f t="shared" si="7"/>
-        <v>109.09090909090908</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3511,24 +3504,24 @@
       <c r="C26" s="30">
         <v>1</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="51">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F26" s="21">
         <f t="shared" si="6"/>
-        <v>1.8181818181818181</v>
+        <v>0.8</v>
       </c>
       <c r="G26">
         <v>20</v>
       </c>
       <c r="H26" s="20">
         <f t="shared" si="7"/>
-        <v>109.09090909090908</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3541,24 +3534,24 @@
       <c r="C27" s="30">
         <v>1</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="51">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F27" s="21">
         <f t="shared" si="6"/>
-        <v>1.8181818181818181</v>
+        <v>0.8</v>
       </c>
       <c r="G27">
         <v>20</v>
       </c>
       <c r="H27" s="20">
         <f t="shared" si="7"/>
-        <v>109.09090909090908</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3571,24 +3564,24 @@
       <c r="C28" s="30">
         <v>1</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="53">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F28" s="21">
         <f t="shared" si="6"/>
-        <v>2.2222222222222223</v>
+        <v>0.8</v>
       </c>
       <c r="G28">
         <v>20</v>
       </c>
       <c r="H28" s="20">
         <f t="shared" ref="H28" si="22">D28*F28*G28</f>
-        <v>44.444444444444443</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3601,24 +3594,24 @@
       <c r="C29" s="30">
         <v>1</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="51">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F29" s="21">
         <f t="shared" si="6"/>
-        <v>2.2222222222222223</v>
+        <v>0.8</v>
       </c>
       <c r="G29">
         <v>20</v>
       </c>
       <c r="H29" s="20">
         <f t="shared" si="7"/>
-        <v>44.444444444444443</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3631,24 +3624,24 @@
       <c r="C30" s="30">
         <v>1</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="51">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F30" s="21">
         <f t="shared" si="6"/>
-        <v>2.2222222222222223</v>
+        <v>0.8</v>
       </c>
       <c r="G30">
         <v>20</v>
       </c>
       <c r="H30" s="20">
         <f t="shared" si="7"/>
-        <v>44.444444444444443</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3661,51 +3654,51 @@
       <c r="C31" s="30">
         <v>1</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="52">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F31" s="21">
         <f t="shared" si="6"/>
-        <v>2.2222222222222223</v>
+        <v>0.8</v>
       </c>
       <c r="G31">
         <v>20</v>
       </c>
       <c r="H31" s="20">
         <f t="shared" si="7"/>
-        <v>44.444444444444443</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="67"/>
       <c r="I34" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="61" t="s">
+      <c r="E35" s="60"/>
+      <c r="F35" s="59" t="s">
         <v>108</v>
       </c>
       <c r="G35" s="29" t="s">
@@ -3720,30 +3713,30 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="42">
         <v>520</v>
       </c>
       <c r="C36" s="28">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
-        <v>1061.3548331101522</v>
-      </c>
-      <c r="D36" s="60">
+        <v>512</v>
+      </c>
+      <c r="D36" s="58">
         <f t="shared" ref="D36:D37" si="24">1-B36/C36</f>
-        <v>0.51006017612770216</v>
-      </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="57" t="str">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="55" t="str">
         <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
         <v>UC_HomePage</v>
       </c>
-      <c r="G36" s="63">
+      <c r="G36" s="61">
         <f>C36/3</f>
-        <v>353.78494437005071</v>
-      </c>
-      <c r="H36" s="52">
+        <v>170.66666666666666</v>
+      </c>
+      <c r="H36" s="50">
         <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
         <v>0</v>
       </c>
@@ -3753,60 +3746,60 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="44">
+      <c r="A37" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="42">
         <v>422</v>
       </c>
       <c r="C37" s="28">
         <f t="shared" ref="C37:C47" si="25">GETPIVOTDATA("Итого",$I$1,"transaction rq",A37)*3</f>
-        <v>941.3548331101523</v>
-      </c>
-      <c r="D37" s="60">
+        <v>416.00000000000006</v>
+      </c>
+      <c r="D37" s="58">
         <f t="shared" si="24"/>
-        <v>0.55170995552681268</v>
-      </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="57" t="str">
+        <v>-1.4423076923076872E-2</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="55" t="str">
         <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
         <v>UC_Login</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="61">
         <f t="shared" ref="G37:G47" si="26">C37/3</f>
-        <v>313.78494437005077</v>
-      </c>
-      <c r="H37" s="52">
+        <v>138.66666666666669</v>
+      </c>
+      <c r="H37" s="50">
         <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="42">
         <v>305</v>
       </c>
       <c r="C38" s="28">
         <f t="shared" ref="C38" si="27">GETPIVOTDATA("Итого",$I$1,"transaction rq",A38)*3</f>
-        <v>229.78723404255322</v>
-      </c>
-      <c r="D38" s="60">
+        <v>144.00000000000003</v>
+      </c>
+      <c r="D38" s="58">
         <f t="shared" ref="D38" si="28">1-B38/C38</f>
-        <v>-0.32731481481481461</v>
-      </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="57" t="str">
+        <v>-1.1180555555555554</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="55" t="str">
         <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>UC_OpenFlights</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="61">
         <f t="shared" si="26"/>
-        <v>76.59574468085107</v>
-      </c>
-      <c r="H38" s="52">
+        <v>48.000000000000007</v>
+      </c>
+      <c r="H38" s="50">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
         <v>0</v>
       </c>
@@ -3816,30 +3809,30 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="42">
         <v>282</v>
       </c>
       <c r="C39" s="28">
         <f t="shared" si="25"/>
-        <v>695.52149977681893</v>
-      </c>
-      <c r="D39" s="56">
+        <v>240</v>
+      </c>
+      <c r="D39" s="54">
         <f t="shared" ref="D39:D48" si="29">1-B39/C39</f>
-        <v>0.59454883840328576</v>
-      </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="57" t="str">
+        <v>-0.17500000000000004</v>
+      </c>
+      <c r="E39" s="56"/>
+      <c r="F39" s="55" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>UC_SearchFlights</v>
       </c>
-      <c r="G39" s="63">
+      <c r="G39" s="61">
         <f t="shared" si="26"/>
-        <v>231.84049992560631</v>
-      </c>
-      <c r="H39" s="52">
+        <v>80</v>
+      </c>
+      <c r="H39" s="50">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
         <v>0</v>
       </c>
@@ -3849,30 +3842,30 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="42">
         <v>270</v>
       </c>
       <c r="C40" s="28">
         <f t="shared" si="25"/>
-        <v>557.05996131528047</v>
-      </c>
-      <c r="D40" s="56">
+        <v>192</v>
+      </c>
+      <c r="D40" s="54">
         <f t="shared" si="29"/>
-        <v>0.51531250000000006</v>
-      </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="57" t="str">
+        <v>-0.40625</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="55" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>UC_ChooseFlight</v>
       </c>
-      <c r="G40" s="63">
+      <c r="G40" s="61">
         <f t="shared" si="26"/>
-        <v>185.68665377176015</v>
-      </c>
-      <c r="H40" s="52">
+        <v>64</v>
+      </c>
+      <c r="H40" s="50">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
         <v>0</v>
       </c>
@@ -3882,30 +3875,30 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="44">
+      <c r="B41" s="42">
         <v>175</v>
       </c>
       <c r="C41" s="28">
         <f t="shared" si="25"/>
-        <v>229.78723404255322</v>
-      </c>
-      <c r="D41" s="56">
+        <v>144.00000000000003</v>
+      </c>
+      <c r="D41" s="54">
         <f t="shared" si="29"/>
-        <v>0.23842592592592604</v>
-      </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="57" t="str">
+        <v>-0.21527777777777746</v>
+      </c>
+      <c r="E41" s="56"/>
+      <c r="F41" s="55" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>UC_PayFlight</v>
       </c>
-      <c r="G41" s="63">
+      <c r="G41" s="61">
         <f t="shared" si="26"/>
-        <v>76.59574468085107</v>
-      </c>
-      <c r="H41" s="52">
+        <v>48.000000000000007</v>
+      </c>
+      <c r="H41" s="50">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
         <v>0</v>
       </c>
@@ -3915,30 +3908,30 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="42">
         <v>280</v>
       </c>
       <c r="C42" s="28">
         <f t="shared" si="25"/>
-        <v>475.62056737588654</v>
-      </c>
-      <c r="D42" s="56">
+        <v>320</v>
+      </c>
+      <c r="D42" s="54">
         <f t="shared" si="29"/>
-        <v>0.41129543336439889</v>
-      </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="57" t="str">
+        <v>0.125</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="55" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>UC_OpenItinerary</v>
       </c>
-      <c r="G42" s="63">
+      <c r="G42" s="61">
         <f t="shared" si="26"/>
-        <v>158.54018912529551</v>
-      </c>
-      <c r="H42" s="52">
+        <v>106.66666666666667</v>
+      </c>
+      <c r="H42" s="50">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
         <v>0</v>
       </c>
@@ -3948,30 +3941,30 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="42">
         <v>73</v>
       </c>
       <c r="C43" s="28">
         <f t="shared" si="25"/>
-        <v>112.5</v>
-      </c>
-      <c r="D43" s="56">
+        <v>80</v>
+      </c>
+      <c r="D43" s="54">
         <f t="shared" si="29"/>
-        <v>0.35111111111111115</v>
-      </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="57" t="str">
+        <v>8.7500000000000022E-2</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="55" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>UC_CancelFlight</v>
       </c>
-      <c r="G43" s="63">
+      <c r="G43" s="61">
         <f t="shared" si="26"/>
-        <v>37.5</v>
-      </c>
-      <c r="H43" s="52">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H43" s="50">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
         <v>0</v>
       </c>
@@ -3981,30 +3974,30 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="42">
         <v>326</v>
       </c>
       <c r="C44" s="28">
         <f t="shared" si="25"/>
-        <v>831.56759906759896</v>
-      </c>
-      <c r="D44" s="56">
+        <v>368</v>
+      </c>
+      <c r="D44" s="54">
         <f t="shared" si="29"/>
-        <v>0.60796933362299133</v>
-      </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="57" t="str">
+        <v>0.11413043478260865</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="55" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>UC_LogOut</v>
       </c>
-      <c r="G44" s="63">
+      <c r="G44" s="61">
         <f t="shared" si="26"/>
-        <v>277.18919968919965</v>
-      </c>
-      <c r="H44" s="52">
+        <v>122.66666666666667</v>
+      </c>
+      <c r="H44" s="50">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
         <v>0</v>
       </c>
@@ -4014,118 +4007,118 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="42">
         <v>97</v>
       </c>
       <c r="C45" s="28">
         <f t="shared" si="25"/>
-        <v>120</v>
-      </c>
-      <c r="D45" s="56">
+        <v>96</v>
+      </c>
+      <c r="D45" s="54">
         <f t="shared" si="29"/>
-        <v>0.19166666666666665</v>
-      </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="57" t="str">
+        <v>-1.0416666666666741E-2</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="55" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>UC_OpenRegistration</v>
       </c>
-      <c r="G45" s="63">
+      <c r="G45" s="61">
         <f t="shared" si="26"/>
-        <v>40</v>
-      </c>
-      <c r="H45" s="52"/>
+        <v>32</v>
+      </c>
+      <c r="H45" s="50"/>
       <c r="I45" s="26" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="42">
         <v>97</v>
       </c>
       <c r="C46" s="28">
         <f t="shared" si="25"/>
-        <v>120</v>
-      </c>
-      <c r="D46" s="56">
+        <v>96</v>
+      </c>
+      <c r="D46" s="54">
         <f t="shared" si="29"/>
-        <v>0.19166666666666665</v>
-      </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="57" t="str">
+        <v>-1.0416666666666741E-2</v>
+      </c>
+      <c r="E46" s="56"/>
+      <c r="F46" s="55" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>UC_FillRegistration</v>
       </c>
-      <c r="G46" s="63">
+      <c r="G46" s="61">
         <f t="shared" si="26"/>
-        <v>40</v>
-      </c>
-      <c r="H46" s="52"/>
+        <v>32</v>
+      </c>
+      <c r="H46" s="50"/>
       <c r="I46" s="26" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="42">
         <v>97</v>
       </c>
       <c r="C47" s="28">
         <f t="shared" si="25"/>
-        <v>120</v>
-      </c>
-      <c r="D47" s="56">
+        <v>96</v>
+      </c>
+      <c r="D47" s="54">
         <f t="shared" si="29"/>
-        <v>0.19166666666666665</v>
-      </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="57" t="str">
+        <v>-1.0416666666666741E-2</v>
+      </c>
+      <c r="E47" s="56"/>
+      <c r="F47" s="55" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
         <v>UC_FinishRegistration</v>
       </c>
-      <c r="G47" s="63">
+      <c r="G47" s="61">
         <f t="shared" si="26"/>
-        <v>40</v>
-      </c>
-      <c r="H47" s="52"/>
+        <v>32</v>
+      </c>
+      <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="48">
+      <c r="B48" s="46">
         <f>SUM(B36:B47)</f>
         <v>2944</v>
       </c>
       <c r="C48" s="27">
         <f>SUM(C36:C47)</f>
-        <v>5494.5537618409962</v>
+        <v>2704</v>
       </c>
       <c r="D48" s="25">
         <f t="shared" si="29"/>
-        <v>0.46419670684711112</v>
-      </c>
-      <c r="I48" s="35"/>
+        <v>-8.8757396449704151E-2</v>
+      </c>
+      <c r="I48" s="33"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -4149,7 +4142,7 @@
       <c r="H51" t="s">
         <v>109</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="32">
         <f>1-B52/H52</f>
         <v>1.8333333333333202E-2</v>
       </c>
@@ -4158,21 +4151,21 @@
       <c r="A52" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="34">
         <f>124/3</f>
         <v>41.333333333333336</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="38">
         <v>57</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="34">
         <f>60/C52</f>
         <v>1.0526315789473684</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="49">
         <v>20</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="47">
         <f>B52/(D52*E52)</f>
         <v>1.9633333333333336</v>
       </c>
@@ -4184,7 +4177,7 @@
         <f>G52*D52*E52</f>
         <v>42.105263157894733</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="32">
         <f>1-B53/H53</f>
         <v>-4.1666666666666741E-2</v>
       </c>
@@ -4193,21 +4186,21 @@
       <c r="A53" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="34">
         <f>150/3</f>
         <v>50</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="38">
         <v>25</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="34">
         <f t="shared" ref="D53:D56" si="30">60/C53</f>
         <v>2.4</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="49">
         <v>20</v>
       </c>
-      <c r="F53" s="49">
+      <c r="F53" s="47">
         <f>B53/(D53*E53)</f>
         <v>1.0416666666666667</v>
       </c>
@@ -4219,7 +4212,7 @@
         <f t="shared" ref="H53:H56" si="32">G53*D53*E53</f>
         <v>48</v>
       </c>
-      <c r="I53" s="34">
+      <c r="I53" s="32">
         <f>1-B54/H54</f>
         <v>4.166666666666663E-2</v>
       </c>
@@ -4228,21 +4221,21 @@
       <c r="A54" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="35">
         <f>30/3</f>
         <v>10</v>
       </c>
-      <c r="C54" s="50">
+      <c r="C54" s="48">
         <v>115</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="34">
         <f t="shared" si="30"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="49">
         <v>20</v>
       </c>
-      <c r="F54" s="49">
+      <c r="F54" s="47">
         <f>B54/(D54*E54)</f>
         <v>0.95833333333333337</v>
       </c>
@@ -4253,7 +4246,7 @@
         <f t="shared" si="32"/>
         <v>10.434782608695652</v>
       </c>
-      <c r="I54" s="34">
+      <c r="I54" s="32">
         <f>1-B55/H55</f>
         <v>0</v>
       </c>
@@ -4262,21 +4255,21 @@
       <c r="A55" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="34">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="38">
         <v>180</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="34">
         <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="49">
         <v>20</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F55" s="47">
         <f>B55/(D55*E55)</f>
         <v>1.0000000000000002</v>
       </c>
@@ -4287,7 +4280,7 @@
         <f t="shared" si="32"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55" s="32">
         <f>1-B56/H56</f>
         <v>0</v>
       </c>
@@ -4296,21 +4289,21 @@
       <c r="A56" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="34">
         <f>120/3</f>
         <v>40</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="38">
         <v>30</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="34">
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="49">
         <v>20</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F56" s="47">
         <f>B56/(D56*E56)</f>
         <v>1</v>
       </c>
@@ -4478,7 +4471,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A22" sqref="A22:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5186,13 +5179,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -5345,13 +5338,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -5511,13 +5504,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
